--- a/FOPS_Osztálykirándulás_Táblázat.xlsx
+++ b/FOPS_Osztálykirándulás_Táblázat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IKT Projektmunka\11o\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E08A255-5943-450D-A979-EE8900A549E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE382DB-8FBD-4861-91F9-6B90158A04DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="TtTk5EP7OcubLGK3WtKQN8PcnLVg2kUM8rWUZLaRa3s="/>
@@ -631,25 +620,25 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="5" customWidth="1"/>
-    <col min="13" max="26" width="7.5703125" style="5" customWidth="1"/>
-    <col min="27" max="16384" width="12.5703125" style="5"/>
+    <col min="10" max="10" width="13.875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="5" customWidth="1"/>
+    <col min="13" max="26" width="7.625" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
@@ -915,7 +904,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="16">
-        <f>SUM(B2:B7)</f>
+        <f>SUM(B2:B6)</f>
         <v>884900</v>
       </c>
       <c r="C8" s="16">
